--- a/medicine/Médecine vétérinaire/Les_Vétos/Les_Vétos.xlsx
+++ b/medicine/Médecine vétérinaire/Les_Vétos/Les_Vétos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9tos</t>
+          <t>Les_Vétos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Vétos est une comédie dramatique française réalisée par Julie Manoukian, sortie en 2019.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9tos</t>
+          <t>Les_Vétos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un village au cœur du Morvan, Nico est un des deux derniers vétérinaires du coin et se démène pour sauver ses patients. Quand Michel, son associé et mentor, décide de partir, Nico est plus qu'inquiet, car il pense ne pas pouvoir tenir la cadence. Mais Michel lui annonce avoir trouvé sa future remplaçante en la personne d'Alexandra « Alex », sa nièce. Le hic : Alexandra a été diplômée la veille, déteste le contact humain et ne compte pas revenir dans son petit village d'enfance.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9tos</t>
+          <t>Les_Vétos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Julie Manoukian
 Scénario : Julie Manoukian
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9tos</t>
+          <t>Les_Vétos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Clovis Cornillac : Nico
 Noémie Schmidt : Alexandra « Alex »
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9tos</t>
+          <t>Les_Vétos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,8 +655,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a eu lieu essentiellement à Lormes[1] et à Mhère[2], dans le département de la Nièvre.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu essentiellement à Lormes et à Mhère, dans le département de la Nièvre.
 </t>
         </is>
       </c>
@@ -649,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_V%C3%A9tos</t>
+          <t>Les_Vétos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,11 +690,13 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques plutôt bonnes de la part de la presse, il obtient une moyenne de 3,1/5 sur Allociné[5]. 
-Le Parisien a beaucoup apprécié le film. Il dit que le film est « une très jolie comédie rurale »[3].
-La Voix du Nord n'a pas trop aimé le film. Il le qualifie de « gentil film pour âmes sensibles »[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques plutôt bonnes de la part de la presse, il obtient une moyenne de 3,1/5 sur Allociné. 
+Le Parisien a beaucoup apprécié le film. Il dit que le film est « une très jolie comédie rurale ».
+La Voix du Nord n'a pas trop aimé le film. Il le qualifie de « gentil film pour âmes sensibles ».
 </t>
         </is>
       </c>
